--- a/stats.xlsx
+++ b/stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Augustus</t>
   </si>
@@ -82,6 +82,75 @@
   </si>
   <si>
     <t>Level 5</t>
+  </si>
+  <si>
+    <t>Cave Boar</t>
+  </si>
+  <si>
+    <t>Desmodus</t>
+  </si>
+  <si>
+    <t>Hacked Harrier</t>
+  </si>
+  <si>
+    <t>Reaver</t>
+  </si>
+  <si>
+    <t>Special Move BlackSpray</t>
+  </si>
+  <si>
+    <t>Special Move: Boar Bomb</t>
+  </si>
+  <si>
+    <t>Special Move: Head Waves</t>
+  </si>
+  <si>
+    <t>Special Move: Cold Blast</t>
+  </si>
+  <si>
+    <t>Special Move: Boar Charge</t>
+  </si>
+  <si>
+    <t>Special Move: Zap</t>
+  </si>
+  <si>
+    <t>Special Move: Life Drain</t>
+  </si>
+  <si>
+    <t>Special Move Gut,  Amp</t>
+  </si>
+  <si>
+    <t>Causes blindness. One character.</t>
+  </si>
+  <si>
+    <t>Causes poison. Entire party.</t>
+  </si>
+  <si>
+    <t>Cause confusion. One character.</t>
+  </si>
+  <si>
+    <t>Does cold damage. One character.</t>
+  </si>
+  <si>
+    <t>May Cause Stun</t>
+  </si>
+  <si>
+    <t>Absorbs Hp</t>
+  </si>
+  <si>
+    <t>May Cause Berserk</t>
+  </si>
+  <si>
+    <t>Gut is steal plus damage. Amp increases critical chance.</t>
+  </si>
+  <si>
+    <t>Macy</t>
+  </si>
+  <si>
+    <t>Special Moves: Protect, Poison Strike, Double Strike</t>
+  </si>
+  <si>
+    <t>Overdrive: Ray Gun</t>
   </si>
 </sst>
 </file>
@@ -440,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +814,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>999</v>
       </c>
@@ -780,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>999</v>
       </c>
@@ -815,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>999</v>
       </c>
@@ -850,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>18</v>
       </c>
@@ -888,7 +957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -913,8 +982,14 @@
       <c r="I27">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -939,8 +1014,14 @@
       <c r="I28">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -965,8 +1046,14 @@
       <c r="I29">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -991,9 +1078,175 @@
       <c r="I30">
         <v>22</v>
       </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>250</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>27</v>
+      </c>
+      <c r="F32">
+        <v>29</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>18</v>
+      </c>
+      <c r="N32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>270</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>29</v>
+      </c>
+      <c r="F33">
+        <v>31</v>
+      </c>
+      <c r="G33">
+        <v>33</v>
+      </c>
+      <c r="H33">
+        <v>23</v>
+      </c>
+      <c r="I33">
+        <v>22</v>
+      </c>
+      <c r="N33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>290</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>31</v>
+      </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <v>35</v>
+      </c>
+      <c r="H34">
+        <v>25</v>
+      </c>
+      <c r="I34">
+        <v>25</v>
+      </c>
+      <c r="N34" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>310</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+      <c r="F35">
+        <v>35</v>
+      </c>
+      <c r="G35">
+        <v>37</v>
+      </c>
+      <c r="H35">
+        <v>25</v>
+      </c>
+      <c r="I35">
+        <v>24</v>
+      </c>
+      <c r="N35" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>520</v>
+      </c>
+      <c r="D36">
+        <v>200</v>
+      </c>
+      <c r="E36">
+        <v>36</v>
+      </c>
+      <c r="F36">
+        <v>39</v>
+      </c>
+      <c r="G36">
+        <v>41</v>
+      </c>
+      <c r="H36">
+        <v>27</v>
+      </c>
+      <c r="I36">
+        <v>26</v>
+      </c>
+      <c r="N36" t="s">
+        <v>43</v>
+      </c>
+      <c r="S36" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A26:M30">
+  <conditionalFormatting sqref="A26:M30 A32:A36 C32:I36">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -1063,7 +1316,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A26:M30</xm:sqref>
+          <xm:sqref>A26:M30 A32:A36 C32:I36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1BBEB843-C115-4D1B-90BB-F9F0AC3B5438}">

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>Augustus</t>
   </si>
@@ -151,13 +151,64 @@
   </si>
   <si>
     <t>Overdrive: Ray Gun</t>
+  </si>
+  <si>
+    <t>Enemy Special Moves</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>Enemy Drops</t>
+  </si>
+  <si>
+    <t>Antidote, Boar Tale, Blood Extract, Boar Fecal Matter</t>
+  </si>
+  <si>
+    <t>Rolly Scale, Black Root, Medkit</t>
+  </si>
+  <si>
+    <t>Screw, Emp Grenades, Tent, Ether</t>
+  </si>
+  <si>
+    <t>Emp Grenades, Metal Sheet</t>
+  </si>
+  <si>
+    <t>Enemies</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Craft Items</t>
+  </si>
+  <si>
+    <t>Bat Wing</t>
+  </si>
+  <si>
+    <t>Emg Pulse</t>
+  </si>
+  <si>
+    <t>Tusk, Green Tail, Heal Kit</t>
+  </si>
+  <si>
+    <t>Maal</t>
+  </si>
+  <si>
+    <t>Pheonix Down, Med Kit, Antidote, Armor Drop (Helmet)</t>
+  </si>
+  <si>
+    <t>, Armor drop (Airloft)</t>
+  </si>
+  <si>
+    <t>MP kit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +220,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,11 +262,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,6 +581,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -814,7 +877,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>999</v>
       </c>
@@ -849,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>999</v>
       </c>
@@ -884,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>999</v>
       </c>
@@ -919,7 +982,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="B26" t="s">
         <v>18</v>
       </c>
@@ -956,8 +1022,20 @@
       <c r="M26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -982,14 +1060,20 @@
       <c r="I27">
         <v>16</v>
       </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
       <c r="N27" t="s">
         <v>26</v>
       </c>
       <c r="Q27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1014,14 +1098,20 @@
       <c r="I28">
         <v>15</v>
       </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
       <c r="N28" t="s">
         <v>27</v>
       </c>
       <c r="Q28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1046,14 +1136,20 @@
       <c r="I29">
         <v>20</v>
       </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
       <c r="N29" t="s">
         <v>28</v>
       </c>
       <c r="Q29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1078,14 +1174,20 @@
       <c r="I30">
         <v>22</v>
       </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
       <c r="N30" t="s">
         <v>29</v>
       </c>
       <c r="Q30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1110,14 +1212,20 @@
       <c r="I32">
         <v>18</v>
       </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
       <c r="N32" t="s">
         <v>30</v>
       </c>
       <c r="Q32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1142,14 +1250,26 @@
       <c r="I33">
         <v>22</v>
       </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
       <c r="N33" t="s">
         <v>32</v>
       </c>
       <c r="Q33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W33" t="s">
+        <v>55</v>
+      </c>
+      <c r="X33" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1174,14 +1294,23 @@
       <c r="I34">
         <v>25</v>
       </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
       <c r="N34" t="s">
         <v>31</v>
       </c>
       <c r="Q34" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W34" t="s">
+        <v>56</v>
+      </c>
+      <c r="X34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1206,14 +1335,20 @@
       <c r="I35">
         <v>24</v>
       </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
       <c r="N35" t="s">
         <v>33</v>
       </c>
       <c r="Q35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1238,6 +1373,9 @@
       <c r="I36">
         <v>26</v>
       </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
       <c r="N36" t="s">
         <v>43</v>
       </c>
@@ -1245,8 +1383,14 @@
         <v>44</v>
       </c>
     </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A26:M30 A32:A36 C32:I36">
+  <conditionalFormatting sqref="A26:M30 A32:A36 C32:I36 N26 M32:M36">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -1316,7 +1460,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A26:M30 A32:A36 C32:I36</xm:sqref>
+          <xm:sqref>A26:M30 A32:A36 C32:I36 N26 M32:M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1BBEB843-C115-4D1B-90BB-F9F0AC3B5438}">

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,10 +1046,10 @@
         <v>50</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F27">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G27">
         <v>20</v>
@@ -1058,7 +1058,7 @@
         <v>12</v>
       </c>
       <c r="I27">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -1084,10 +1084,10 @@
         <v>50</v>
       </c>
       <c r="E28">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F28">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>23</v>
@@ -1096,7 +1096,7 @@
         <v>14</v>
       </c>
       <c r="I28">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -1122,10 +1122,10 @@
         <v>50</v>
       </c>
       <c r="E29">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F29">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="G29">
         <v>25</v>
@@ -1134,7 +1134,7 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -1160,10 +1160,10 @@
         <v>50</v>
       </c>
       <c r="E30">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F30">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30">
         <v>28</v>
@@ -1172,7 +1172,7 @@
         <v>23</v>
       </c>
       <c r="I30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -1198,10 +1198,10 @@
         <v>50</v>
       </c>
       <c r="E32">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F32">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G32">
         <v>30</v>
@@ -1210,7 +1210,7 @@
         <v>20</v>
       </c>
       <c r="I32">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -1236,10 +1236,10 @@
         <v>50</v>
       </c>
       <c r="E33">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F33">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G33">
         <v>33</v>
@@ -1248,7 +1248,7 @@
         <v>23</v>
       </c>
       <c r="I33">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -1280,10 +1280,10 @@
         <v>50</v>
       </c>
       <c r="E34">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F34">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="G34">
         <v>35</v>
@@ -1321,10 +1321,10 @@
         <v>50</v>
       </c>
       <c r="E35">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F35">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G35">
         <v>37</v>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="21075" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>Augustus</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Antidote, Boar Tale, Blood Extract, Boar Fecal Matter</t>
   </si>
   <si>
-    <t>Rolly Scale, Black Root, Medkit</t>
-  </si>
-  <si>
     <t>Screw, Emp Grenades, Tent, Ether</t>
   </si>
   <si>
@@ -183,15 +180,9 @@
     <t>Craft Items</t>
   </si>
   <si>
-    <t>Bat Wing</t>
-  </si>
-  <si>
     <t>Emg Pulse</t>
   </si>
   <si>
-    <t>Tusk, Green Tail, Heal Kit</t>
-  </si>
-  <si>
     <t>Maal</t>
   </si>
   <si>
@@ -201,7 +192,25 @@
     <t>, Armor drop (Airloft)</t>
   </si>
   <si>
-    <t>MP kit</t>
+    <t>Ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scale, Black Root, Medkit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast Tail, Blood Extract, Boar </t>
+  </si>
+  <si>
+    <t>Fecal Matter</t>
+  </si>
+  <si>
+    <t>Tusk, Tail, Heal Kit</t>
+  </si>
+  <si>
+    <t>Pollen</t>
+  </si>
+  <si>
+    <t>Beast Wing</t>
   </si>
 </sst>
 </file>
@@ -569,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="Y45" sqref="Y45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +591,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -877,7 +886,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>999</v>
       </c>
@@ -912,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>999</v>
       </c>
@@ -947,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>999</v>
       </c>
@@ -982,9 +991,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -1035,7 +1044,7 @@
       </c>
       <c r="X26" s="4"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1070,10 +1079,10 @@
         <v>34</v>
       </c>
       <c r="W27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1110,8 +1119,14 @@
       <c r="W28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1146,10 +1161,10 @@
         <v>36</v>
       </c>
       <c r="W29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1184,10 +1199,10 @@
         <v>37</v>
       </c>
       <c r="W30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1222,10 +1237,10 @@
         <v>38</v>
       </c>
       <c r="W32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1260,16 +1275,19 @@
         <v>39</v>
       </c>
       <c r="W33" t="s">
+        <v>63</v>
+      </c>
+      <c r="X33" t="s">
         <v>55</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1304,13 +1322,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1345,10 +1363,10 @@
         <v>41</v>
       </c>
       <c r="W35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1383,9 +1401,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="4"/>
     </row>
